--- a/00_data/kekayaan.xlsx
+++ b/00_data/kekayaan.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adinr\Downloads\Latex-and-R_Energy-Mix-and-Democracy\00_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EE40E1-E3FF-4BFE-81C9-B686E339DEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7151C3CD-CD06-4E78-BE07-E3249BBF06CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="730" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Parameters" sheetId="5" state="hidden" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8827" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8809" uniqueCount="456">
   <si>
     <t>Chile</t>
   </si>
@@ -1384,60 +1383,6 @@
   </si>
   <si>
     <t>North Macedonia</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Fiscal Yeay</t>
-  </si>
-  <si>
-    <t>Publication Date</t>
-  </si>
-  <si>
-    <t>Low Income Threshold</t>
-  </si>
-  <si>
-    <t>Lower Middle Income Range</t>
-  </si>
-  <si>
-    <t>Upper Middle Income Range</t>
-  </si>
-  <si>
-    <t>High Income Threshold</t>
-  </si>
-  <si>
-    <t>Number of economies</t>
-  </si>
-  <si>
-    <t>GNI Year</t>
-  </si>
-  <si>
-    <t>Term of Income Classification</t>
-  </si>
-  <si>
-    <t>FY21</t>
-  </si>
-  <si>
-    <t>(July 2020)</t>
-  </si>
-  <si>
-    <t>$1,035 or less</t>
-  </si>
-  <si>
-    <t>$1,036  to $4,045</t>
-  </si>
-  <si>
-    <t>$4,046 to $12,535</t>
-  </si>
-  <si>
-    <t>until 1 July 2021</t>
-  </si>
-  <si>
-    <t>$12,536 or more</t>
   </si>
   <si>
     <t>São Tomé and Príncipe</t>
@@ -1466,9 +1411,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="General_)"/>
+    <numFmt numFmtId="164" formatCode="General_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -1476,11 +1421,6 @@
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -1537,11 +1477,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1552,16 +1492,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2369,112 +2308,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.21875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="B8" s="4">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8C84E7-D2D8-43BB-8897-486578A91B12}">
   <dimension ref="A1:AN225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="G183" sqref="G183"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -2484,132 +2322,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="C1" s="9">
+      <c r="A1" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1" s="8">
         <v>1987</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="8">
         <v>1988</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="8">
         <v>1989</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="8">
         <v>1990</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="8">
         <v>1991</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="8">
         <v>1992</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="8">
         <v>1993</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="8">
         <v>1994</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="8">
         <v>1995</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="8">
         <v>1996</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="8">
         <v>1997</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="8">
         <v>1998</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="8">
         <v>1999</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="8">
         <v>2000</v>
       </c>
-      <c r="Q1" s="9">
+      <c r="Q1" s="8">
         <v>2001</v>
       </c>
-      <c r="R1" s="9">
+      <c r="R1" s="8">
         <v>2002</v>
       </c>
-      <c r="S1" s="9">
+      <c r="S1" s="8">
         <v>2003</v>
       </c>
-      <c r="T1" s="9">
+      <c r="T1" s="8">
         <v>2004</v>
       </c>
-      <c r="U1" s="9">
+      <c r="U1" s="8">
         <v>2005</v>
       </c>
-      <c r="V1" s="9">
+      <c r="V1" s="8">
         <v>2006</v>
       </c>
-      <c r="W1" s="9">
+      <c r="W1" s="8">
         <v>2007</v>
       </c>
-      <c r="X1" s="9">
+      <c r="X1" s="8">
         <v>2008</v>
       </c>
-      <c r="Y1" s="9">
+      <c r="Y1" s="8">
         <v>2009</v>
       </c>
-      <c r="Z1" s="9">
+      <c r="Z1" s="8">
         <v>2010</v>
       </c>
-      <c r="AA1" s="9">
+      <c r="AA1" s="8">
         <v>2011</v>
       </c>
-      <c r="AB1" s="9">
+      <c r="AB1" s="8">
         <v>2012</v>
       </c>
-      <c r="AC1" s="9">
+      <c r="AC1" s="8">
         <v>2013</v>
       </c>
-      <c r="AD1" s="9">
+      <c r="AD1" s="8">
         <v>2014</v>
       </c>
-      <c r="AE1" s="9">
+      <c r="AE1" s="8">
         <v>2015</v>
       </c>
-      <c r="AF1" s="9">
+      <c r="AF1" s="8">
         <v>2016</v>
       </c>
-      <c r="AG1" s="9">
+      <c r="AG1" s="8">
         <v>2017</v>
       </c>
-      <c r="AH1" s="9">
+      <c r="AH1" s="8">
         <v>2018</v>
       </c>
-      <c r="AI1" s="9">
+      <c r="AI1" s="8">
         <v>2019</v>
       </c>
-      <c r="AJ1" s="9">
+      <c r="AJ1" s="8">
         <v>2020</v>
       </c>
-      <c r="AK1" s="9">
+      <c r="AK1" s="8">
         <v>2021</v>
       </c>
-      <c r="AL1" s="9">
+      <c r="AL1" s="8">
         <v>2022</v>
       </c>
-      <c r="AM1" s="9">
+      <c r="AM1" s="8">
         <v>2023</v>
       </c>
-      <c r="AN1" s="9">
+      <c r="AN1" s="8">
         <v>2024</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2728,10 +2566,10 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2850,10 +2688,10 @@
       </c>
     </row>
     <row r="4" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2972,10 +2810,10 @@
       </c>
     </row>
     <row r="5" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3094,10 +2932,10 @@
       </c>
     </row>
     <row r="6" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>440</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3216,10 +3054,10 @@
       </c>
     </row>
     <row r="7" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3338,10 +3176,10 @@
       </c>
     </row>
     <row r="8" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3460,10 +3298,10 @@
       </c>
     </row>
     <row r="9" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3582,10 +3420,10 @@
       </c>
     </row>
     <row r="10" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3704,10 +3542,10 @@
       </c>
     </row>
     <row r="11" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3826,10 +3664,10 @@
       </c>
     </row>
     <row r="12" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3948,10 +3786,10 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -4070,10 +3908,10 @@
       </c>
     </row>
     <row r="14" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -4192,10 +4030,10 @@
       </c>
     </row>
     <row r="15" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4314,10 +4152,10 @@
       </c>
     </row>
     <row r="16" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -4436,10 +4274,10 @@
       </c>
     </row>
     <row r="17" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4558,10 +4396,10 @@
       </c>
     </row>
     <row r="18" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -4680,10 +4518,10 @@
       </c>
     </row>
     <row r="19" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4802,10 +4640,10 @@
       </c>
     </row>
     <row r="20" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -4924,10 +4762,10 @@
       </c>
     </row>
     <row r="21" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -5046,10 +4884,10 @@
       </c>
     </row>
     <row r="22" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -5168,10 +5006,10 @@
       </c>
     </row>
     <row r="23" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -5290,10 +5128,10 @@
       </c>
     </row>
     <row r="24" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -5412,10 +5250,10 @@
       </c>
     </row>
     <row r="25" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -5534,10 +5372,10 @@
       </c>
     </row>
     <row r="26" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -5656,10 +5494,10 @@
       </c>
     </row>
     <row r="27" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -5778,10 +5616,10 @@
       </c>
     </row>
     <row r="28" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -5900,10 +5738,10 @@
       </c>
     </row>
     <row r="29" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>436</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -6022,10 +5860,10 @@
       </c>
     </row>
     <row r="30" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -6144,10 +5982,10 @@
       </c>
     </row>
     <row r="31" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -6266,10 +6104,10 @@
       </c>
     </row>
     <row r="32" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -6388,10 +6226,10 @@
       </c>
     </row>
     <row r="33" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -6510,10 +6348,10 @@
       </c>
     </row>
     <row r="34" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -6632,10 +6470,10 @@
       </c>
     </row>
     <row r="35" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -6754,10 +6592,10 @@
       </c>
     </row>
     <row r="36" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -6876,10 +6714,10 @@
       </c>
     </row>
     <row r="37" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -6998,10 +6836,10 @@
       </c>
     </row>
     <row r="38" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -7120,10 +6958,10 @@
       </c>
     </row>
     <row r="39" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -7242,10 +7080,10 @@
       </c>
     </row>
     <row r="40" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -7364,10 +7202,10 @@
       </c>
     </row>
     <row r="41" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -7486,10 +7324,10 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>155</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -7608,10 +7446,10 @@
       </c>
     </row>
     <row r="43" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -7730,10 +7568,10 @@
       </c>
     </row>
     <row r="44" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -7852,10 +7690,10 @@
       </c>
     </row>
     <row r="45" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -7974,10 +7812,10 @@
       </c>
     </row>
     <row r="46" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>441</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -8096,10 +7934,10 @@
       </c>
     </row>
     <row r="47" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -8218,10 +8056,10 @@
       </c>
     </row>
     <row r="48" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -8340,10 +8178,10 @@
       </c>
     </row>
     <row r="49" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -8462,10 +8300,10 @@
       </c>
     </row>
     <row r="50" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>166</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -8584,10 +8422,10 @@
       </c>
     </row>
     <row r="51" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -8706,10 +8544,10 @@
       </c>
     </row>
     <row r="52" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>430</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -8828,10 +8666,10 @@
       </c>
     </row>
     <row r="53" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -8950,10 +8788,10 @@
       </c>
     </row>
     <row r="54" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="B54" s="5" t="s">
+      <c r="A54" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -9072,10 +8910,10 @@
       </c>
     </row>
     <row r="55" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -9194,10 +9032,10 @@
       </c>
     </row>
     <row r="56" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -9316,10 +9154,10 @@
       </c>
     </row>
     <row r="57" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -9438,10 +9276,10 @@
       </c>
     </row>
     <row r="58" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -9560,10 +9398,10 @@
       </c>
     </row>
     <row r="59" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>178</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -9682,10 +9520,10 @@
       </c>
     </row>
     <row r="60" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>179</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -9804,10 +9642,10 @@
       </c>
     </row>
     <row r="61" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -9926,10 +9764,10 @@
       </c>
     </row>
     <row r="62" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -10048,10 +9886,10 @@
       </c>
     </row>
     <row r="63" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -10170,10 +10008,10 @@
       </c>
     </row>
     <row r="64" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -10292,10 +10130,10 @@
       </c>
     </row>
     <row r="65" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -10414,10 +10252,10 @@
       </c>
     </row>
     <row r="66" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -10536,10 +10374,10 @@
       </c>
     </row>
     <row r="67" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>187</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -10658,10 +10496,10 @@
       </c>
     </row>
     <row r="68" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>189</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -10780,10 +10618,10 @@
       </c>
     </row>
     <row r="69" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -10902,10 +10740,10 @@
       </c>
     </row>
     <row r="70" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>192</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -11024,10 +10862,10 @@
       </c>
     </row>
     <row r="71" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>194</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -11146,10 +10984,10 @@
       </c>
     </row>
     <row r="72" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -11268,10 +11106,10 @@
       </c>
     </row>
     <row r="73" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -11390,10 +11228,10 @@
       </c>
     </row>
     <row r="74" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -11512,10 +11350,10 @@
       </c>
     </row>
     <row r="75" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -11634,10 +11472,10 @@
       </c>
     </row>
     <row r="76" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>202</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -11756,10 +11594,10 @@
       </c>
     </row>
     <row r="77" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>411</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -11878,10 +11716,10 @@
       </c>
     </row>
     <row r="78" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -12000,10 +11838,10 @@
       </c>
     </row>
     <row r="79" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -12122,10 +11960,10 @@
       </c>
     </row>
     <row r="80" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -12244,10 +12082,10 @@
       </c>
     </row>
     <row r="81" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -12366,10 +12204,10 @@
       </c>
     </row>
     <row r="82" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -12488,10 +12326,10 @@
       </c>
     </row>
     <row r="83" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>211</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -12610,10 +12448,10 @@
       </c>
     </row>
     <row r="84" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -12732,10 +12570,10 @@
       </c>
     </row>
     <row r="85" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>215</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -12854,10 +12692,10 @@
       </c>
     </row>
     <row r="86" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>216</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -12976,10 +12814,10 @@
       </c>
     </row>
     <row r="87" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -13098,10 +12936,10 @@
       </c>
     </row>
     <row r="88" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -13220,10 +13058,10 @@
       </c>
     </row>
     <row r="89" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>220</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -13342,10 +13180,10 @@
       </c>
     </row>
     <row r="90" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="4" t="s">
         <v>221</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -13464,10 +13302,10 @@
       </c>
     </row>
     <row r="91" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -13586,10 +13424,10 @@
       </c>
     </row>
     <row r="92" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>225</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -13708,10 +13546,10 @@
       </c>
     </row>
     <row r="93" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="4" t="s">
         <v>226</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -13830,10 +13668,10 @@
       </c>
     </row>
     <row r="94" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>228</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -13952,10 +13790,10 @@
       </c>
     </row>
     <row r="95" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>230</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -14074,10 +13912,10 @@
       </c>
     </row>
     <row r="96" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="4" t="s">
         <v>442</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -14196,10 +14034,10 @@
       </c>
     </row>
     <row r="97" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>233</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -14318,10 +14156,10 @@
       </c>
     </row>
     <row r="98" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>235</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -14440,10 +14278,10 @@
       </c>
     </row>
     <row r="99" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>237</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -14562,10 +14400,10 @@
       </c>
     </row>
     <row r="100" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="4" t="s">
         <v>238</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -14684,10 +14522,10 @@
       </c>
     </row>
     <row r="101" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>240</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -14806,10 +14644,10 @@
       </c>
     </row>
     <row r="102" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="4" t="s">
         <v>241</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -14928,10 +14766,10 @@
       </c>
     </row>
     <row r="103" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="4" t="s">
         <v>242</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -15050,10 +14888,10 @@
       </c>
     </row>
     <row r="104" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="4" t="s">
         <v>243</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -15172,10 +15010,10 @@
       </c>
     </row>
     <row r="105" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -15294,10 +15132,10 @@
       </c>
     </row>
     <row r="106" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="4" t="s">
         <v>246</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -15416,10 +15254,10 @@
       </c>
     </row>
     <row r="107" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="4" t="s">
         <v>443</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -15538,10 +15376,10 @@
       </c>
     </row>
     <row r="108" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="4" t="s">
         <v>247</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -15660,10 +15498,10 @@
       </c>
     </row>
     <row r="109" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="4" t="s">
         <v>249</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -15782,10 +15620,10 @@
       </c>
     </row>
     <row r="110" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
+      <c r="A110" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -15904,10 +15742,10 @@
       </c>
     </row>
     <row r="111" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -16026,10 +15864,10 @@
       </c>
     </row>
     <row r="112" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="4" t="s">
         <v>253</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -16148,10 +15986,10 @@
       </c>
     </row>
     <row r="113" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -16270,10 +16108,10 @@
       </c>
     </row>
     <row r="114" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="4" t="s">
         <v>255</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -16392,10 +16230,10 @@
       </c>
     </row>
     <row r="115" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="4" t="s">
         <v>256</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -16514,10 +16352,10 @@
       </c>
     </row>
     <row r="116" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -16636,10 +16474,10 @@
       </c>
     </row>
     <row r="117" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="4" t="s">
         <v>260</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -16758,10 +16596,10 @@
       </c>
     </row>
     <row r="118" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="s">
+      <c r="A118" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="4" t="s">
         <v>261</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -16880,10 +16718,10 @@
       </c>
     </row>
     <row r="119" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -17002,10 +16840,10 @@
       </c>
     </row>
     <row r="120" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="4" t="s">
         <v>265</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -17124,10 +16962,10 @@
       </c>
     </row>
     <row r="121" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="4" t="s">
         <v>267</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -17246,10 +17084,10 @@
       </c>
     </row>
     <row r="122" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
+      <c r="A122" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="4" t="s">
         <v>269</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -17368,10 +17206,10 @@
       </c>
     </row>
     <row r="123" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="4" t="s">
         <v>270</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -17490,10 +17328,10 @@
       </c>
     </row>
     <row r="124" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="s">
+      <c r="A124" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="4" t="s">
         <v>271</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -17612,10 +17450,10 @@
       </c>
     </row>
     <row r="125" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="4" t="s">
         <v>273</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -17734,10 +17572,10 @@
       </c>
     </row>
     <row r="126" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="s">
+      <c r="A126" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="4" t="s">
         <v>275</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -17856,10 +17694,10 @@
       </c>
     </row>
     <row r="127" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
+      <c r="A127" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="4" t="s">
         <v>277</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -17978,10 +17816,10 @@
       </c>
     </row>
     <row r="128" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="s">
+      <c r="A128" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="4" t="s">
         <v>278</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -18100,10 +17938,10 @@
       </c>
     </row>
     <row r="129" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -18222,10 +18060,10 @@
       </c>
     </row>
     <row r="130" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A130" s="6" t="s">
+      <c r="A130" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -18344,10 +18182,10 @@
       </c>
     </row>
     <row r="131" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A131" s="6" t="s">
+      <c r="A131" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -18466,10 +18304,10 @@
       </c>
     </row>
     <row r="132" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A132" s="6" t="s">
+      <c r="A132" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="4" t="s">
         <v>285</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -18588,10 +18426,10 @@
       </c>
     </row>
     <row r="133" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="s">
+      <c r="A133" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="4" t="s">
         <v>287</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -18710,10 +18548,10 @@
       </c>
     </row>
     <row r="134" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="4" t="s">
         <v>417</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -18832,10 +18670,10 @@
       </c>
     </row>
     <row r="135" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -18954,10 +18792,10 @@
       </c>
     </row>
     <row r="136" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="4" t="s">
         <v>289</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -19076,10 +18914,10 @@
       </c>
     </row>
     <row r="137" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="4" t="s">
         <v>291</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -19198,10 +19036,10 @@
       </c>
     </row>
     <row r="138" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="4" t="s">
         <v>293</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -19320,10 +19158,10 @@
       </c>
     </row>
     <row r="139" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -19442,10 +19280,10 @@
       </c>
     </row>
     <row r="140" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="4" t="s">
         <v>294</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -19564,10 +19402,10 @@
       </c>
     </row>
     <row r="141" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="4" t="s">
         <v>296</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -19686,10 +19524,10 @@
       </c>
     </row>
     <row r="142" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="4" t="s">
         <v>299</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -19808,10 +19646,10 @@
       </c>
     </row>
     <row r="143" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
+      <c r="A143" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="4" t="s">
         <v>301</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -19930,10 +19768,10 @@
       </c>
     </row>
     <row r="144" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A144" s="6" t="s">
+      <c r="A144" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="4" t="s">
         <v>303</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -20052,10 +19890,10 @@
       </c>
     </row>
     <row r="145" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="4" t="s">
         <v>304</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -20174,10 +20012,10 @@
       </c>
     </row>
     <row r="146" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="4" t="s">
         <v>306</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -20296,10 +20134,10 @@
       </c>
     </row>
     <row r="147" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A147" s="6" t="s">
+      <c r="A147" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -20418,10 +20256,10 @@
       </c>
     </row>
     <row r="148" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="s">
+      <c r="A148" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="4" t="s">
         <v>307</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -20540,10 +20378,10 @@
       </c>
     </row>
     <row r="149" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A149" s="6" t="s">
+      <c r="A149" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="4" t="s">
         <v>309</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -20662,10 +20500,10 @@
       </c>
     </row>
     <row r="150" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A150" s="6" t="s">
+      <c r="A150" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="4" t="s">
         <v>311</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -20784,10 +20622,10 @@
       </c>
     </row>
     <row r="151" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A151" s="6" t="s">
+      <c r="A151" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="4" t="s">
         <v>313</v>
       </c>
       <c r="C151" s="1" t="s">
@@ -20906,10 +20744,10 @@
       </c>
     </row>
     <row r="152" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A152" s="6" t="s">
+      <c r="A152" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="4" t="s">
         <v>315</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -21028,10 +20866,10 @@
       </c>
     </row>
     <row r="153" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A153" s="6" t="s">
+      <c r="A153" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="4" t="s">
         <v>316</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -21150,10 +20988,10 @@
       </c>
     </row>
     <row r="154" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A154" s="6" t="s">
+      <c r="A154" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="4" t="s">
         <v>317</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -21272,10 +21110,10 @@
       </c>
     </row>
     <row r="155" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="4" t="s">
         <v>318</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -21394,10 +21232,10 @@
       </c>
     </row>
     <row r="156" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="s">
+      <c r="A156" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="4" t="s">
         <v>319</v>
       </c>
       <c r="C156" s="1" t="s">
@@ -21516,10 +21354,10 @@
       </c>
     </row>
     <row r="157" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A157" s="6" t="s">
+      <c r="A157" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="4" t="s">
         <v>320</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -21638,10 +21476,10 @@
       </c>
     </row>
     <row r="158" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A158" s="6" t="s">
+      <c r="A158" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="4" t="s">
         <v>321</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -21760,10 +21598,10 @@
       </c>
     </row>
     <row r="159" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="s">
+      <c r="A159" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="4" t="s">
         <v>322</v>
       </c>
       <c r="C159" s="1" t="s">
@@ -21882,10 +21720,10 @@
       </c>
     </row>
     <row r="160" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A160" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="B160" s="5" t="s">
+      <c r="A160" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>323</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -22004,10 +21842,10 @@
       </c>
     </row>
     <row r="161" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="4" t="s">
         <v>324</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -22126,10 +21964,10 @@
       </c>
     </row>
     <row r="162" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="4" t="s">
         <v>444</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -22248,10 +22086,10 @@
       </c>
     </row>
     <row r="163" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A163" s="6" t="s">
+      <c r="A163" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="4" t="s">
         <v>326</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -22370,10 +22208,10 @@
       </c>
     </row>
     <row r="164" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A164" s="6" t="s">
+      <c r="A164" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="4" t="s">
         <v>327</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -22492,10 +22330,10 @@
       </c>
     </row>
     <row r="165" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
+      <c r="A165" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="4" t="s">
         <v>329</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -22614,10 +22452,10 @@
       </c>
     </row>
     <row r="166" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="4" t="s">
         <v>330</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -22736,10 +22574,10 @@
       </c>
     </row>
     <row r="167" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A167" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="B167" s="5" t="s">
+      <c r="A167" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -22858,10 +22696,10 @@
       </c>
     </row>
     <row r="168" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="6" t="s">
+      <c r="A168" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -22980,10 +22818,10 @@
       </c>
     </row>
     <row r="169" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A169" s="6" t="s">
+      <c r="A169" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="4" t="s">
         <v>335</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -23102,10 +22940,10 @@
       </c>
     </row>
     <row r="170" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A170" s="6" t="s">
+      <c r="A170" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="4" t="s">
         <v>418</v>
       </c>
       <c r="C170" s="1" t="s">
@@ -23224,10 +23062,10 @@
       </c>
     </row>
     <row r="171" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A171" s="6" t="s">
+      <c r="A171" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C171" s="1" t="s">
@@ -23346,10 +23184,10 @@
       </c>
     </row>
     <row r="172" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A172" s="6" t="s">
+      <c r="A172" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C172" s="1" t="s">
@@ -23468,10 +23306,10 @@
       </c>
     </row>
     <row r="173" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A173" s="6" t="s">
+      <c r="A173" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="4" t="s">
         <v>340</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -23590,10 +23428,10 @@
       </c>
     </row>
     <row r="174" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="s">
+      <c r="A174" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="4" t="s">
         <v>431</v>
       </c>
       <c r="C174" s="1" t="s">
@@ -23712,10 +23550,10 @@
       </c>
     </row>
     <row r="175" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A175" s="6" t="s">
+      <c r="A175" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="4" t="s">
         <v>342</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -23834,10 +23672,10 @@
       </c>
     </row>
     <row r="176" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A176" s="6" t="s">
+      <c r="A176" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -23956,10 +23794,10 @@
       </c>
     </row>
     <row r="177" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A177" s="6" t="s">
+      <c r="A177" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -24078,10 +23916,10 @@
       </c>
     </row>
     <row r="178" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A178" s="6" t="s">
+      <c r="A178" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="4" t="s">
         <v>346</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -24200,10 +24038,10 @@
       </c>
     </row>
     <row r="179" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A179" s="6" t="s">
+      <c r="A179" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C179" s="1" t="s">
@@ -24322,10 +24160,10 @@
       </c>
     </row>
     <row r="180" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A180" s="6" t="s">
+      <c r="A180" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="4" t="s">
         <v>433</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -24444,10 +24282,10 @@
       </c>
     </row>
     <row r="181" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A181" s="6" t="s">
+      <c r="A181" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -24566,10 +24404,10 @@
       </c>
     </row>
     <row r="182" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A182" s="6" t="s">
+      <c r="A182" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -24688,10 +24526,10 @@
       </c>
     </row>
     <row r="183" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A183" s="6" t="s">
+      <c r="A183" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="4" t="s">
         <v>352</v>
       </c>
       <c r="C183" s="1" t="s">
@@ -24810,10 +24648,10 @@
       </c>
     </row>
     <row r="184" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A184" s="6" t="s">
+      <c r="A184" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B184" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -24932,10 +24770,10 @@
       </c>
     </row>
     <row r="185" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A185" s="6" t="s">
+      <c r="A185" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="4" t="s">
         <v>429</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -25054,10 +24892,10 @@
       </c>
     </row>
     <row r="186" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A186" s="6" t="s">
+      <c r="A186" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -25176,10 +25014,10 @@
       </c>
     </row>
     <row r="187" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A187" s="6" t="s">
+      <c r="A187" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -25298,10 +25136,10 @@
       </c>
     </row>
     <row r="188" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A188" s="6" t="s">
+      <c r="A188" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B188" s="4" t="s">
         <v>357</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -25420,10 +25258,10 @@
       </c>
     </row>
     <row r="189" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A189" s="6" t="s">
+      <c r="A189" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -25542,10 +25380,10 @@
       </c>
     </row>
     <row r="190" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A190" s="6" t="s">
+      <c r="A190" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -25664,10 +25502,10 @@
       </c>
     </row>
     <row r="191" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A191" s="6" t="s">
+      <c r="A191" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="4" t="s">
         <v>363</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -25786,10 +25624,10 @@
       </c>
     </row>
     <row r="192" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A192" s="6" t="s">
+      <c r="A192" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="4" t="s">
         <v>364</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -25908,10 +25746,10 @@
       </c>
     </row>
     <row r="193" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A193" s="6" t="s">
+      <c r="A193" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="4" t="s">
         <v>366</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -26030,10 +25868,10 @@
       </c>
     </row>
     <row r="194" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A194" s="6" t="s">
+      <c r="A194" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="4" t="s">
         <v>367</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -26152,10 +25990,10 @@
       </c>
     </row>
     <row r="195" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A195" s="6" t="s">
+      <c r="A195" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="4" t="s">
         <v>369</v>
       </c>
       <c r="C195" s="1" t="s">
@@ -26274,10 +26112,10 @@
       </c>
     </row>
     <row r="196" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A196" s="6" t="s">
+      <c r="A196" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="B196" s="4" t="s">
         <v>445</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -26396,10 +26234,10 @@
       </c>
     </row>
     <row r="197" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A197" s="6" t="s">
+      <c r="A197" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="B197" s="4" t="s">
         <v>371</v>
       </c>
       <c r="C197" s="1" t="s">
@@ -26518,10 +26356,10 @@
       </c>
     </row>
     <row r="198" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A198" s="6" t="s">
+      <c r="A198" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="4" t="s">
         <v>372</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -26640,10 +26478,10 @@
       </c>
     </row>
     <row r="199" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A199" s="6" t="s">
+      <c r="A199" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="B199" s="4" t="s">
         <v>373</v>
       </c>
       <c r="C199" s="1" t="s">
@@ -26762,10 +26600,10 @@
       </c>
     </row>
     <row r="200" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A200" s="6" t="s">
+      <c r="A200" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -26884,10 +26722,10 @@
       </c>
     </row>
     <row r="201" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A201" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="B201" s="5" t="s">
+      <c r="A201" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B201" s="4" t="s">
         <v>376</v>
       </c>
       <c r="C201" s="1" t="s">
@@ -27006,10 +26844,10 @@
       </c>
     </row>
     <row r="202" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A202" s="6" t="s">
+      <c r="A202" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="B202" s="4" t="s">
         <v>377</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -27128,10 +26966,10 @@
       </c>
     </row>
     <row r="203" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A203" s="6" t="s">
+      <c r="A203" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="B203" s="4" t="s">
         <v>424</v>
       </c>
       <c r="C203" s="3" t="s">
@@ -27250,10 +27088,10 @@
       </c>
     </row>
     <row r="204" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A204" s="6" t="s">
+      <c r="A204" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="B204" s="4" t="s">
         <v>425</v>
       </c>
       <c r="C204" s="3" t="s">
@@ -27372,10 +27210,10 @@
       </c>
     </row>
     <row r="205" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A205" s="6" t="s">
+      <c r="A205" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B205" s="5" t="s">
+      <c r="B205" s="4" t="s">
         <v>378</v>
       </c>
       <c r="C205" s="1" t="s">
@@ -27494,10 +27332,10 @@
       </c>
     </row>
     <row r="206" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A206" s="6" t="s">
+      <c r="A206" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="B206" s="4" t="s">
         <v>380</v>
       </c>
       <c r="C206" s="1" t="s">
@@ -27616,10 +27454,10 @@
       </c>
     </row>
     <row r="207" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A207" s="6" t="s">
+      <c r="A207" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B207" s="4" t="s">
         <v>381</v>
       </c>
       <c r="C207" s="1" t="s">
@@ -27738,10 +27576,10 @@
       </c>
     </row>
     <row r="208" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A208" s="6" t="s">
+      <c r="A208" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="B208" s="4" t="s">
         <v>383</v>
       </c>
       <c r="C208" s="1" t="s">
@@ -27860,10 +27698,10 @@
       </c>
     </row>
     <row r="209" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A209" s="6" t="s">
+      <c r="A209" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="4" t="s">
         <v>385</v>
       </c>
       <c r="C209" s="1" t="s">
@@ -27982,10 +27820,10 @@
       </c>
     </row>
     <row r="210" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A210" s="6" t="s">
+      <c r="A210" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" s="4" t="s">
         <v>387</v>
       </c>
       <c r="C210" s="1" t="s">
@@ -28104,10 +27942,10 @@
       </c>
     </row>
     <row r="211" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A211" s="6" t="s">
+      <c r="A211" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="B211" s="4" t="s">
         <v>388</v>
       </c>
       <c r="C211" s="1" t="s">
@@ -28226,10 +28064,10 @@
       </c>
     </row>
     <row r="212" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A212" s="6" t="s">
+      <c r="A212" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B212" s="5" t="s">
+      <c r="B212" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C212" s="1" t="s">
@@ -28348,10 +28186,10 @@
       </c>
     </row>
     <row r="213" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A213" s="6" t="s">
+      <c r="A213" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="B213" s="4" t="s">
         <v>390</v>
       </c>
       <c r="C213" s="1" t="s">
@@ -28460,10 +28298,10 @@
       <c r="AN213" s="1"/>
     </row>
     <row r="214" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A214" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="B214" s="5" t="s">
+      <c r="A214" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B214" s="4" t="s">
         <v>392</v>
       </c>
       <c r="C214" s="1" t="s">
@@ -28582,10 +28420,10 @@
       </c>
     </row>
     <row r="215" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A215" s="6" t="s">
+      <c r="A215" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="B215" s="4" t="s">
         <v>393</v>
       </c>
       <c r="C215" s="1" t="s">
@@ -28704,10 +28542,10 @@
       </c>
     </row>
     <row r="216" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A216" s="6" t="s">
+      <c r="A216" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B216" s="5" t="s">
+      <c r="B216" s="4" t="s">
         <v>446</v>
       </c>
       <c r="C216" s="1" t="s">
@@ -28826,10 +28664,10 @@
       </c>
     </row>
     <row r="217" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A217" s="6" t="s">
+      <c r="A217" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="B217" s="4" t="s">
         <v>396</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -28948,10 +28786,10 @@
       </c>
     </row>
     <row r="218" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A218" s="6" t="s">
+      <c r="A218" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="4" t="s">
         <v>397</v>
       </c>
       <c r="C218" s="1" t="s">
@@ -29070,10 +28908,10 @@
       </c>
     </row>
     <row r="219" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A219" s="7" t="s">
+      <c r="A219" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="B219" s="4" t="s">
         <v>398</v>
       </c>
       <c r="C219" s="2" t="s">
@@ -29192,10 +29030,10 @@
       </c>
     </row>
     <row r="220" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A220" s="6" t="s">
+      <c r="A220" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="B220" s="4" t="s">
         <v>409</v>
       </c>
       <c r="C220" s="1" t="s">
@@ -29243,10 +29081,10 @@
       <c r="AI220" s="1"/>
     </row>
     <row r="221" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A221" s="6" t="s">
+      <c r="A221" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B221" s="5" t="s">
+      <c r="B221" s="4" t="s">
         <v>279</v>
       </c>
       <c r="C221" s="1" t="s">
@@ -29332,10 +29170,10 @@
       <c r="AI221" s="1"/>
     </row>
     <row r="222" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A222" s="6" t="s">
+      <c r="A222" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="B222" s="4" t="s">
         <v>298</v>
       </c>
       <c r="C222" s="1" t="s">
@@ -29419,10 +29257,10 @@
       <c r="AI222" s="1"/>
     </row>
     <row r="223" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A223" s="6" t="s">
+      <c r="A223" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B223" s="5" t="s">
+      <c r="B223" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C223" s="1" t="s">
@@ -29498,10 +29336,10 @@
       <c r="AI223" s="1"/>
     </row>
     <row r="224" spans="1:40" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A224" s="6" t="s">
+      <c r="A224" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="B224" s="4" t="s">
         <v>408</v>
       </c>
       <c r="C224" s="1" t="s">
@@ -29547,10 +29385,10 @@
       <c r="AI224" s="1"/>
     </row>
     <row r="225" spans="1:35" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A225" s="6" t="s">
+      <c r="A225" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B225" s="5" t="s">
+      <c r="B225" s="4" t="s">
         <v>410</v>
       </c>
       <c r="C225" s="1" t="s">
